--- a/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1440" windowWidth="24120" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,27 +65,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -463,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -479,10 +459,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>B3+C3</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"AAAAA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -65,7 +65,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -446,7 +476,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -473,13 +503,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"AAAAA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/conditional_formatting.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,57 +70,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -148,6 +103,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,13 +438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -489,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>B3+C3</f>
         <v>3</v>
@@ -503,17 +464,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"AAAAA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
